--- a/media/excel/流量表.xlsx
+++ b/media/excel/流量表.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\0219-0225\STJ绿港国际中心2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Python_Projects\Sewage\media\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD902739-9F2B-49E9-9AC5-DB923C3C8E4C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7489D9-43AF-4F8C-BCD6-9F3DE6BD86F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5565" windowWidth="32940" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17745" yWindow="6645" windowWidth="38700" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="流量" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="15">
   <si>
     <t>容器法监测流量记录表</t>
   </si>
@@ -468,28 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -514,14 +493,35 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -846,252 +846,2028 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="2" customWidth="1"/>
     <col min="9" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16" t="e">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="e">
         <f>(E4/1000)/D4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G4" s="4" t="e">
+      <c r="G4" s="16" t="e">
         <f>(F4+F5+F6)/3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="14" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16" t="e">
-        <f t="shared" ref="F4:F12" si="0">(E5/1000)/D5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="e">
+        <f t="shared" ref="F5:F12" si="0">(E5/1000)/D5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16" t="e">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16" t="e">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G7" s="4" t="e">
+      <c r="G7" s="16" t="e">
         <f>(F7+F8+F9)/3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16" t="e">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16" t="e">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5">
-        <v>0.8125</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16" t="e">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="4" t="e">
+      <c r="G10" s="16" t="e">
         <f>(F10+F11+F12)/3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16" t="e">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16" t="e">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="18" t="e">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="10" t="e">
         <f>AVERAGE(G4:G12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="17"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="18" t="e">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="10" t="e">
         <f>G13*86400/1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="17"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="23.25">
+      <c r="A16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" ht="18">
+      <c r="A17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="47.25">
+      <c r="A18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9" t="e">
+        <f>(E19/1000)/D19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="16" t="e">
+        <f>(F19+F20+F21)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9" t="e">
+        <f t="shared" ref="F20:F27" si="1">(E20/1000)/D20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" ht="14.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" s="16" t="e">
+        <f>(F22+F23+F24)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" ht="14.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" ht="14.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:8" ht="14.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="16" t="e">
+        <f>(F25+F26+F27)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" ht="14.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="10" t="e">
+        <f>AVERAGE(G19:G27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="10" t="e">
+        <f>G28*86400/1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="23.25">
+      <c r="A31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" ht="18">
+      <c r="A32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" ht="47.25">
+      <c r="A33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9" t="e">
+        <f>(E34/1000)/D34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="16" t="e">
+        <f>(F34+F35+F36)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9" t="e">
+        <f t="shared" ref="F35:F42" si="2">(E35/1000)/D35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="1:8" ht="14.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="16" t="e">
+        <f>(F37+F38+F39)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="1:8" ht="14.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="39" spans="1:8" ht="14.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="16"/>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:8" ht="14.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="16" t="e">
+        <f>(F40+F41+F42)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="20"/>
+    </row>
+    <row r="41" spans="1:8" ht="14.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="21"/>
+    </row>
+    <row r="42" spans="1:8" ht="14.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" spans="1:8" ht="14.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="10" t="e">
+        <f>AVERAGE(G34:G42)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" ht="14.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="10" t="e">
+        <f>G43*86400/1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="46" spans="1:8" ht="23.25">
+      <c r="A46" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8" ht="18">
+      <c r="A47" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" ht="47.25">
+      <c r="A48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9" t="e">
+        <f>(E49/1000)/D49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G49" s="16" t="e">
+        <f>(F49+F50+F51)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="1:8" ht="14.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9" t="e">
+        <f t="shared" ref="F50:F57" si="3">(E50/1000)/D50</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" spans="1:8" ht="14.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="1:8" ht="14.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" s="16" t="e">
+        <f>(F52+F53+F54)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="1:8" ht="14.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G53" s="16"/>
+      <c r="H53" s="21"/>
+    </row>
+    <row r="54" spans="1:8" ht="14.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G54" s="16"/>
+      <c r="H54" s="22"/>
+    </row>
+    <row r="55" spans="1:8" ht="14.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G55" s="16" t="e">
+        <f>(F55+F56+F57)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H55" s="20"/>
+    </row>
+    <row r="56" spans="1:8" ht="14.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G56" s="16"/>
+      <c r="H56" s="21"/>
+    </row>
+    <row r="57" spans="1:8" ht="14.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G57" s="16"/>
+      <c r="H57" s="22"/>
+    </row>
+    <row r="58" spans="1:8" ht="14.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="10" t="e">
+        <f>AVERAGE(G49:G57)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" ht="14.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="10" t="e">
+        <f>G58*86400/1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="61" spans="1:8" ht="23.25">
+      <c r="A61" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+    </row>
+    <row r="62" spans="1:8" ht="18">
+      <c r="A62" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" spans="1:8" ht="47.25">
+      <c r="A63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="14.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="9" t="e">
+        <f>(E64/1000)/D64</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G64" s="16" t="e">
+        <f>(F64+F65+F66)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H64" s="17"/>
+    </row>
+    <row r="65" spans="1:8" ht="14.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="9" t="e">
+        <f t="shared" ref="F65:F72" si="4">(E65/1000)/D65</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+    </row>
+    <row r="66" spans="1:8" ht="14.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+    </row>
+    <row r="67" spans="1:8" ht="14.25">
+      <c r="A67" s="14"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G67" s="16" t="e">
+        <f>(F67+F68+F69)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H67" s="20"/>
+    </row>
+    <row r="68" spans="1:8" ht="14.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G68" s="16"/>
+      <c r="H68" s="21"/>
+    </row>
+    <row r="69" spans="1:8" ht="14.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G69" s="16"/>
+      <c r="H69" s="22"/>
+    </row>
+    <row r="70" spans="1:8" ht="14.25">
+      <c r="A70" s="14"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G70" s="16" t="e">
+        <f>(F70+F71+F72)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H70" s="20"/>
+    </row>
+    <row r="71" spans="1:8" ht="14.25">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G71" s="16"/>
+      <c r="H71" s="21"/>
+    </row>
+    <row r="72" spans="1:8" ht="14.25">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G72" s="16"/>
+      <c r="H72" s="22"/>
+    </row>
+    <row r="73" spans="1:8" ht="14.25">
+      <c r="A73" s="14"/>
+      <c r="B73" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="10" t="e">
+        <f>AVERAGE(G64:G72)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" ht="14.25">
+      <c r="A74" s="14"/>
+      <c r="B74" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="10" t="e">
+        <f>G73*86400/1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="76" spans="1:8" ht="23.25">
+      <c r="A76" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+    </row>
+    <row r="77" spans="1:8" ht="18">
+      <c r="A77" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+    </row>
+    <row r="78" spans="1:8" ht="47.25">
+      <c r="A78" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="14.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="9" t="e">
+        <f>(E79/1000)/D79</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G79" s="16" t="e">
+        <f>(F79+F80+F81)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H79" s="17"/>
+    </row>
+    <row r="80" spans="1:8" ht="14.25">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="9" t="e">
+        <f t="shared" ref="F80:F87" si="5">(E80/1000)/D80</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+    </row>
+    <row r="81" spans="1:8" ht="14.25">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+    </row>
+    <row r="82" spans="1:8" ht="14.25">
+      <c r="A82" s="14"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G82" s="16" t="e">
+        <f>(F82+F83+F84)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H82" s="20"/>
+    </row>
+    <row r="83" spans="1:8" ht="14.25">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G83" s="16"/>
+      <c r="H83" s="21"/>
+    </row>
+    <row r="84" spans="1:8" ht="14.25">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G84" s="16"/>
+      <c r="H84" s="22"/>
+    </row>
+    <row r="85" spans="1:8" ht="14.25">
+      <c r="A85" s="14"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G85" s="16" t="e">
+        <f>(F85+F86+F87)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H85" s="20"/>
+    </row>
+    <row r="86" spans="1:8" ht="14.25">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G86" s="16"/>
+      <c r="H86" s="21"/>
+    </row>
+    <row r="87" spans="1:8" ht="14.25">
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G87" s="16"/>
+      <c r="H87" s="22"/>
+    </row>
+    <row r="88" spans="1:8" ht="14.25">
+      <c r="A88" s="14"/>
+      <c r="B88" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="10" t="e">
+        <f>AVERAGE(G79:G87)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" ht="14.25">
+      <c r="A89" s="14"/>
+      <c r="B89" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="10" t="e">
+        <f>G88*86400/1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="91" spans="1:8" ht="23.25">
+      <c r="A91" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+    </row>
+    <row r="92" spans="1:8" ht="18">
+      <c r="A92" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+    </row>
+    <row r="93" spans="1:8" ht="47.25">
+      <c r="A93" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="14.25">
+      <c r="A94" s="14"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="9" t="e">
+        <f>(E94/1000)/D94</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G94" s="16" t="e">
+        <f>(F94+F95+F96)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H94" s="17"/>
+    </row>
+    <row r="95" spans="1:8" ht="14.25">
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="9" t="e">
+        <f t="shared" ref="F95:F102" si="6">(E95/1000)/D95</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+    </row>
+    <row r="96" spans="1:8" ht="14.25">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+    </row>
+    <row r="97" spans="1:8" ht="14.25">
+      <c r="A97" s="14"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G97" s="16" t="e">
+        <f>(F97+F98+F99)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H97" s="20"/>
+    </row>
+    <row r="98" spans="1:8" ht="14.25">
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G98" s="16"/>
+      <c r="H98" s="21"/>
+    </row>
+    <row r="99" spans="1:8" ht="14.25">
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G99" s="16"/>
+      <c r="H99" s="22"/>
+    </row>
+    <row r="100" spans="1:8" ht="14.25">
+      <c r="A100" s="14"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G100" s="16" t="e">
+        <f>(F100+F101+F102)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="20"/>
+    </row>
+    <row r="101" spans="1:8" ht="14.25">
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G101" s="16"/>
+      <c r="H101" s="21"/>
+    </row>
+    <row r="102" spans="1:8" ht="14.25">
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="9" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G102" s="16"/>
+      <c r="H102" s="22"/>
+    </row>
+    <row r="103" spans="1:8" ht="14.25">
+      <c r="A103" s="14"/>
+      <c r="B103" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="10" t="e">
+        <f>AVERAGE(G94:G102)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="1:8" ht="14.25">
+      <c r="A104" s="14"/>
+      <c r="B104" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="10" t="e">
+        <f>G103*86400/1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="106" spans="1:8" ht="23.25">
+      <c r="A106" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+    </row>
+    <row r="107" spans="1:8" ht="18">
+      <c r="A107" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+    </row>
+    <row r="108" spans="1:8" ht="47.25">
+      <c r="A108" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="14.25">
+      <c r="A109" s="14"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="9" t="e">
+        <f>(E109/1000)/D109</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G109" s="16" t="e">
+        <f>(F109+F110+F111)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H109" s="17"/>
+    </row>
+    <row r="110" spans="1:8" ht="14.25">
+      <c r="A110" s="14"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="9" t="e">
+        <f t="shared" ref="F110:F117" si="7">(E110/1000)/D110</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+    </row>
+    <row r="111" spans="1:8" ht="14.25">
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+    </row>
+    <row r="112" spans="1:8" ht="14.25">
+      <c r="A112" s="14"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G112" s="16" t="e">
+        <f>(F112+F113+F114)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H112" s="20"/>
+    </row>
+    <row r="113" spans="1:8" ht="14.25">
+      <c r="A113" s="14"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G113" s="16"/>
+      <c r="H113" s="21"/>
+    </row>
+    <row r="114" spans="1:8" ht="14.25">
+      <c r="A114" s="14"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G114" s="16"/>
+      <c r="H114" s="22"/>
+    </row>
+    <row r="115" spans="1:8" ht="14.25">
+      <c r="A115" s="14"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G115" s="16" t="e">
+        <f>(F115+F116+F117)/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H115" s="20"/>
+    </row>
+    <row r="116" spans="1:8" ht="14.25">
+      <c r="A116" s="14"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G116" s="16"/>
+      <c r="H116" s="21"/>
+    </row>
+    <row r="117" spans="1:8" ht="14.25">
+      <c r="A117" s="14"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G117" s="16"/>
+      <c r="H117" s="22"/>
+    </row>
+    <row r="118" spans="1:8" ht="14.25">
+      <c r="A118" s="14"/>
+      <c r="B118" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="10" t="e">
+        <f>AVERAGE(G109:G117)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H118" s="1"/>
+    </row>
+    <row r="119" spans="1:8" ht="14.25">
+      <c r="A119" s="14"/>
+      <c r="B119" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="10" t="e">
+        <f>G118*86400/1000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H119" s="1"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="G121"/>
+      <c r="H121"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="G122"/>
+      <c r="H122"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="G123"/>
+      <c r="H123"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="G124"/>
+      <c r="H124"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="G125"/>
+      <c r="H125"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="G126"/>
+      <c r="H126"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="G127"/>
+      <c r="H127"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="G128"/>
+      <c r="H128"/>
+    </row>
+    <row r="129" spans="7:8">
+      <c r="G129"/>
+      <c r="H129"/>
+    </row>
+    <row r="130" spans="7:8">
+      <c r="G130"/>
+      <c r="H130"/>
+    </row>
+    <row r="131" spans="7:8">
+      <c r="G131"/>
+      <c r="H131"/>
+    </row>
+    <row r="132" spans="7:8">
+      <c r="G132"/>
+      <c r="H132"/>
+    </row>
+    <row r="133" spans="7:8">
+      <c r="G133"/>
+      <c r="H133"/>
+    </row>
+    <row r="134" spans="7:8">
+      <c r="G134"/>
+      <c r="H134"/>
+    </row>
+    <row r="135" spans="7:8">
+      <c r="G135"/>
+      <c r="H135"/>
+    </row>
+    <row r="136" spans="7:8">
+      <c r="G136"/>
+      <c r="H136"/>
+    </row>
+    <row r="137" spans="7:8">
+      <c r="G137"/>
+      <c r="H137"/>
+    </row>
+    <row r="138" spans="7:8">
+      <c r="G138"/>
+      <c r="H138"/>
+    </row>
+    <row r="139" spans="7:8">
+      <c r="G139"/>
+      <c r="H139"/>
+    </row>
+    <row r="140" spans="7:8">
+      <c r="G140"/>
+      <c r="H140"/>
+    </row>
+    <row r="141" spans="7:8">
+      <c r="G141"/>
+      <c r="H141"/>
+    </row>
+    <row r="142" spans="7:8">
+      <c r="G142"/>
+      <c r="H142"/>
+    </row>
+    <row r="143" spans="7:8">
+      <c r="G143"/>
+      <c r="H143"/>
+    </row>
+    <row r="144" spans="7:8">
+      <c r="G144"/>
+      <c r="H144"/>
+    </row>
+    <row r="145" spans="7:8">
+      <c r="G145"/>
+      <c r="H145"/>
+    </row>
+    <row r="146" spans="7:8">
+      <c r="G146"/>
+      <c r="H146"/>
+    </row>
+    <row r="147" spans="7:8">
+      <c r="G147"/>
+      <c r="H147"/>
+    </row>
+    <row r="148" spans="7:8">
+      <c r="G148"/>
+      <c r="H148"/>
+    </row>
+    <row r="149" spans="7:8">
+      <c r="G149"/>
+      <c r="H149"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="112">
+    <mergeCell ref="A106:H106"/>
+    <mergeCell ref="A107:H107"/>
+    <mergeCell ref="A109:A119"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="G109:G111"/>
+    <mergeCell ref="H109:H111"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="G112:G114"/>
+    <mergeCell ref="H112:H114"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="G115:G117"/>
+    <mergeCell ref="H115:H117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="A91:H91"/>
+    <mergeCell ref="A92:H92"/>
+    <mergeCell ref="A94:A104"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="H94:H96"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="G97:G99"/>
+    <mergeCell ref="H97:H99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="A77:H77"/>
+    <mergeCell ref="A79:A89"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="G79:G81"/>
+    <mergeCell ref="H79:H81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="G85:G87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A64:A74"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A49:A59"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A34:A44"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A19:A29"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A4:A14"/>
